--- a/electrical-considerations/power-considerations.xlsx
+++ b/electrical-considerations/power-considerations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\electrical-considerations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698C7898-8020-4072-AAE2-F07B399D174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F907B2-C31F-4EE3-8410-18B7F8461D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>1.28</v>
+        <v>2.5</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="C12">
         <f>C5+B1*C7+SUM(C8:C11)</f>
-        <v>139.22</v>
+        <v>140.44</v>
       </c>
       <c r="F12">
         <f>SUM(F5:F11)</f>

--- a/electrical-considerations/power-considerations.xlsx
+++ b/electrical-considerations/power-considerations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\electrical-considerations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F907B2-C31F-4EE3-8410-18B7F8461D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6C5C95-A79F-4A87-97CE-404C96D46ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,42 +35,12 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={EDFC1F6D-C710-48DD-80D3-EF0F68657693}</author>
-    <author>tc={CA7717A0-5AE8-4F5B-A4DE-254C224B326D}</author>
-  </authors>
-  <commentList>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{EDFC1F6D-C710-48DD-80D3-EF0F68657693}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I got this from the forum post about connecting it to a battery</t>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="1" shapeId="0" xr:uid="{CA7717A0-5AE8-4F5B-A4DE-254C224B326D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I got this from the forum post about connecting it to a battery</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Device</t>
   </si>
   <si>
-    <t>Current (A)</t>
-  </si>
-  <si>
     <t>Speedy Bee V3 F4 Stack</t>
   </si>
   <si>
@@ -83,15 +53,6 @@
     <t>Max Current (A)</t>
   </si>
   <si>
-    <t>PowerBoost Converter</t>
-  </si>
-  <si>
-    <t>Comms device</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
     <t>Voltage (V)</t>
   </si>
   <si>
@@ -101,45 +62,18 @@
     <t>Oak-D Lite Camera</t>
   </si>
   <si>
-    <t>Nom Power (W)</t>
-  </si>
-  <si>
-    <t>Max Power (W)</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Frame</t>
   </si>
   <si>
-    <t>2.7 (idle)</t>
-  </si>
-  <si>
     <t>0.54 (idle)</t>
   </si>
   <si>
-    <t>Recommend ESC: 45A</t>
-  </si>
-  <si>
-    <t>Thrust (4x4.5 prop)</t>
-  </si>
-  <si>
-    <t>racerstar-br2207s-fire-edition-2200kv</t>
-  </si>
-  <si>
-    <t>1060g@18.5V</t>
-  </si>
-  <si>
-    <t>28.3@18.5V</t>
-  </si>
-  <si>
     <t>Number of motors</t>
   </si>
   <si>
-    <t>524@18.5V x 1 motor</t>
-  </si>
-  <si>
     <t>Discharge rate (C)</t>
   </si>
   <si>
@@ -149,16 +83,37 @@
     <t>Min usage time (min)</t>
   </si>
   <si>
-    <t>Velocity (ft/min)</t>
-  </si>
-  <si>
-    <t>Thrust (lbf)</t>
-  </si>
-  <si>
-    <t>HP (x4)</t>
-  </si>
-  <si>
     <t>11.1-22.2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Oak-D Lite Y-adapter</t>
+  </si>
+  <si>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>Cont. Current (A)</t>
+  </si>
+  <si>
+    <t>Max Power Draw (W)</t>
+  </si>
+  <si>
+    <t>Nom. Power Draw (W)</t>
+  </si>
+  <si>
+    <t>Cost (€ tax incl.)</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>link</t>
   </si>
 </sst>
 </file>
@@ -206,21 +161,34 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -234,9 +202,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Mike Thamm" id="{2FBDC50D-459E-4615-92F0-93A11F40B4D0}" userId="S::thamm@uwindsor.ca::43b75b9b-9190-408b-97ad-9d8c21402861" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,320 +500,445 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C9" dT="2023-08-27T15:42:34.77" personId="{2FBDC50D-459E-4615-92F0-93A11F40B4D0}" id="{EDFC1F6D-C710-48DD-80D3-EF0F68657693}">
-    <text>I got this from the forum post about connecting it to a battery</text>
-  </threadedComment>
-  <threadedComment ref="D9" dT="2023-08-27T15:42:47.71" personId="{2FBDC50D-459E-4615-92F0-93A11F40B4D0}" id="{CA7717A0-5AE8-4F5B-A4DE-254C224B326D}">
-    <text>I got this from the forum post about connecting it to a battery</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE627F9-A14D-47F1-B5B5-2088EF7C2698}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE627F9-A14D-47F1-B5B5-2088EF7C2698}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="C4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <f>50*B1</f>
+        <v>200</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>2.5</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>6.4</v>
-      </c>
-      <c r="G5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6">
-        <v>33.15</v>
-      </c>
-      <c r="G6">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <f>28.3*(22.2/18.5)</f>
-        <v>33.96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <f>B1*524*(22.2/18.5)</f>
-        <v>2515.1999999999998</v>
-      </c>
-      <c r="G7">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <f>B1*890</f>
+        <v>3560</v>
+      </c>
+      <c r="G6" s="1">
         <f>B1*35</f>
         <v>140</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>61</v>
+      </c>
+    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <f>SUM(F4:F11)</f>
+        <v>3570.9</v>
+      </c>
+      <c r="G12" s="1">
+        <f>SUM(G3:G10)</f>
+        <v>275.39999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
         <v>6</v>
       </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>2.1</v>
-      </c>
-      <c r="D9">
+      <c r="D14" s="1">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>0.6</v>
-      </c>
-      <c r="F9">
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
         <v>4.5</v>
       </c>
-      <c r="G9">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="G14" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1">
+        <v>60</v>
+      </c>
+      <c r="G15" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B15*B14</f>
+        <v>240</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C15*C14</f>
+        <v>270</v>
+      </c>
+      <c r="D16" s="1">
+        <f>D15*D14</f>
+        <v>225</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E15*E14</f>
+        <v>225</v>
+      </c>
+      <c r="F16" s="1">
+        <f>F15*F14</f>
+        <v>270</v>
+      </c>
+      <c r="G16" s="1">
+        <f>G15*G14</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
-        <f>C5+B1*C7+SUM(C8:C11)</f>
-        <v>140.44</v>
-      </c>
-      <c r="F12">
-        <f>SUM(F5:F11)</f>
-        <v>2559.25</v>
-      </c>
-      <c r="G12">
-        <f>SUM(G4:G10)</f>
-        <v>276.60000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <f>2*B1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="e">
-        <f>B15*33000/B17</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
+      <c r="B18" s="1">
+        <f>60/B15</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <f>60/C15</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D18" s="1">
+        <f>60/D15</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E18" s="1">
+        <f>60/E15</f>
+        <v>2.4</v>
+      </c>
+      <c r="F18" s="1">
+        <f>60/F15</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <f>60/G15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B19" s="1">
+        <v>671</v>
+      </c>
+      <c r="C19" s="1">
+        <v>802</v>
+      </c>
+      <c r="D19" s="1">
+        <v>782</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1110</v>
+      </c>
+      <c r="F19" s="1">
+        <v>630.5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>110</v>
+      </c>
+      <c r="C20" s="1">
+        <v>137</v>
+      </c>
+      <c r="D20" s="1">
+        <v>123</v>
+      </c>
+      <c r="E20" s="1">
+        <v>171</v>
+      </c>
+      <c r="F20" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
-        <v>45</v>
-      </c>
-      <c r="C20">
+      <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <f>B20*B19</f>
-        <v>270</v>
-      </c>
-      <c r="C21">
-        <f>C20*C19</f>
-        <v>225</v>
-      </c>
-      <c r="D21">
-        <f>D20*D19</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>22.2</v>
-      </c>
-      <c r="C22">
-        <v>22.2</v>
-      </c>
-      <c r="D22">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <f>60/B20</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="C23">
-        <f>60/C20</f>
-        <v>2.4</v>
-      </c>
-      <c r="D23">
-        <f>60/D20</f>
-        <v>2</v>
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C14:D14"/>
-  </mergeCells>
+  <conditionalFormatting sqref="B16:G16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>$C$5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{F12C4620-1FC5-4F50-BA0A-EEE5AE879D82}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{C9A2EBA6-23C0-428D-8951-FCFCA35329D8}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{0DA00957-246C-4D00-8BAE-FE0922C4D2DF}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{D724DC78-B0CF-401A-847F-A0F139CD9F85}"/>
+    <hyperlink ref="D21" r:id="rId1" location="attr=2301,2704,2869" xr:uid="{9F70E8F4-A24D-48B4-B5A9-60058CD0F419}"/>
+    <hyperlink ref="F21" r:id="rId2" location="attr=2811,2284,2870" xr:uid="{557DF9B9-FAEC-4CA1-ADA6-312E1300F93E}"/>
+    <hyperlink ref="G21" r:id="rId3" location="attr=7464,7465,7466" xr:uid="{4EC97789-D0A1-4E48-94A4-FD2922805FD7}"/>
+    <hyperlink ref="B21" r:id="rId4" location="attr=2812,2245,2872" xr:uid="{683BBE85-19DB-44F6-B7CC-56949D194243}"/>
+    <hyperlink ref="E21" r:id="rId5" location="attr=1394,3122,2906" xr:uid="{F57E8C37-C2C4-409F-9A93-3F79F44D93B8}"/>
+    <hyperlink ref="C21" r:id="rId6" location="attr=2297,2797,2856" xr:uid="{B6E5247B-9AA0-4629-9EFD-A0AEE0DF57DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>